--- a/IntegrationPlanning_v1.xlsx
+++ b/IntegrationPlanning_v1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="95">
   <si>
     <t>Date</t>
   </si>
@@ -35,6 +35,12 @@
   </si>
   <si>
     <t>Initial Draft</t>
+  </si>
+  <si>
+    <t>17/11/2013</t>
+  </si>
+  <si>
+    <t>Test case executed on v1 of website. Test results updated.</t>
   </si>
   <si>
     <t>SR#</t>
@@ -90,6 +96,12 @@
     <t>Message Should be display "Customer added successfully !!"</t>
   </si>
   <si>
+    <t>Warning: mysql_connect() [function.mysql-connect]: Access denied for user 'root'@'localhost' (using password: NO) in /home/demo/public_html/V1/html/insrtCustomer.php on line 2   Could not connect: Access denied for user 'root'@'localhost' (using password: NO)</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
     <t>IP2</t>
   </si>
   <si>
@@ -101,6 +113,9 @@
   </si>
   <si>
     <t>Message Should be displayed"Email address already exist"</t>
+  </si>
+  <si>
+    <t>Connection Error</t>
   </si>
   <si>
     <t>IP3</t>
@@ -314,7 +329,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -322,17 +337,19 @@
     </font>
     <font>
       <sz val="12.0"/>
-      <name val="Verdana"/>
     </font>
     <font/>
     <font>
-      <b/>
-      <sz val="11.0"/>
+      <sz val="12.0"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
       <name val="Verdana"/>
     </font>
     <font>
-      <b/>
-      <sz val="11.0"/>
+      <sz val="10.0"/>
+      <name val="Verdana"/>
     </font>
     <font>
       <b/>
@@ -340,7 +357,7 @@
       <color rgb="FFFFFFFF"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -349,20 +366,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF6B26B"/>
-        <bgColor rgb="FFF6B26B"/>
+        <fgColor rgb="FFFF9900"/>
+        <bgColor rgb="FFFF9900"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEAD1DC"/>
-        <bgColor rgb="FFEAD1DC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
   </fills>
@@ -406,54 +417,54 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="3" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
@@ -461,11 +472,8 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -493,68 +501,68 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="15.13" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="6" max="6" width="30.38"/>
+    <col customWidth="1" min="6" max="6" width="32.13"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="D1" s="2"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="2"/>
+      <c r="F1" s="1"/>
     </row>
     <row r="2">
       <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="D2" s="2"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="2"/>
+      <c r="F2" s="1"/>
     </row>
     <row r="3">
       <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="D3" s="2"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="2"/>
+      <c r="F3" s="1"/>
     </row>
     <row r="4">
       <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="D4" s="2"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="2"/>
+      <c r="F4" s="1"/>
     </row>
     <row r="5">
       <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="D5" s="2"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="2"/>
+      <c r="F5" s="1"/>
     </row>
     <row r="6">
       <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="D6" s="2"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="2"/>
+      <c r="F6" s="1"/>
     </row>
     <row r="7">
       <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="D7" s="2"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="2"/>
+      <c r="F7" s="1"/>
     </row>
     <row r="8">
       <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="D8" s="2"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="2"/>
+      <c r="F8" s="1"/>
     </row>
     <row r="9">
       <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="D9" s="2"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="2"/>
+      <c r="F9" s="1"/>
     </row>
     <row r="10">
       <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="D10" s="4"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="4"/>
+      <c r="F10" s="3"/>
     </row>
     <row r="11">
       <c r="B11" s="5"/>
@@ -567,548 +575,564 @@
       <c r="E11" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G11" s="8"/>
+      <c r="G11" s="7"/>
     </row>
     <row r="12">
       <c r="B12" s="5"/>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D12" s="9">
         <v>1.0</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="8"/>
+      <c r="G12" s="7"/>
     </row>
     <row r="13">
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="12"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="9">
+        <v>1.1</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="7"/>
     </row>
     <row r="14">
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="2"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
     </row>
     <row r="15">
       <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+      <c r="D15" s="2"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="2"/>
+      <c r="F15" s="1"/>
     </row>
     <row r="16">
       <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+      <c r="D16" s="2"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="2"/>
+      <c r="F16" s="1"/>
     </row>
     <row r="17">
       <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+      <c r="D17" s="2"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="2"/>
+      <c r="F17" s="1"/>
     </row>
     <row r="18">
       <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
+      <c r="D18" s="2"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="2"/>
+      <c r="F18" s="1"/>
     </row>
     <row r="19">
       <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+      <c r="D19" s="2"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="2"/>
+      <c r="F19" s="1"/>
     </row>
     <row r="20">
       <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
+      <c r="D20" s="2"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="2"/>
+      <c r="F20" s="1"/>
     </row>
     <row r="21">
       <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
+      <c r="D21" s="2"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="2"/>
+      <c r="F21" s="1"/>
     </row>
     <row r="22">
       <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
+      <c r="D22" s="2"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="2"/>
+      <c r="F22" s="1"/>
     </row>
     <row r="23">
       <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
+      <c r="D23" s="2"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="2"/>
+      <c r="F23" s="1"/>
     </row>
     <row r="24">
       <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
+      <c r="D24" s="2"/>
       <c r="E24" s="1"/>
-      <c r="F24" s="2"/>
+      <c r="F24" s="1"/>
     </row>
     <row r="25">
       <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
+      <c r="D25" s="2"/>
       <c r="E25" s="1"/>
-      <c r="F25" s="2"/>
+      <c r="F25" s="1"/>
     </row>
     <row r="26">
       <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
+      <c r="D26" s="2"/>
       <c r="E26" s="1"/>
-      <c r="F26" s="2"/>
+      <c r="F26" s="1"/>
     </row>
     <row r="27">
       <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
+      <c r="D27" s="2"/>
       <c r="E27" s="1"/>
-      <c r="F27" s="2"/>
+      <c r="F27" s="1"/>
     </row>
     <row r="28">
       <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
+      <c r="D28" s="2"/>
       <c r="E28" s="1"/>
-      <c r="F28" s="2"/>
+      <c r="F28" s="1"/>
     </row>
     <row r="29">
       <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
+      <c r="D29" s="2"/>
       <c r="E29" s="1"/>
-      <c r="F29" s="2"/>
+      <c r="F29" s="1"/>
     </row>
     <row r="30">
       <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
+      <c r="D30" s="2"/>
       <c r="E30" s="1"/>
-      <c r="F30" s="2"/>
+      <c r="F30" s="1"/>
     </row>
     <row r="31">
       <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
+      <c r="D31" s="2"/>
       <c r="E31" s="1"/>
-      <c r="F31" s="2"/>
+      <c r="F31" s="1"/>
     </row>
     <row r="32">
       <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
+      <c r="D32" s="2"/>
       <c r="E32" s="1"/>
-      <c r="F32" s="2"/>
+      <c r="F32" s="1"/>
     </row>
     <row r="33">
       <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
+      <c r="D33" s="2"/>
       <c r="E33" s="1"/>
-      <c r="F33" s="2"/>
+      <c r="F33" s="1"/>
     </row>
     <row r="34">
       <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
+      <c r="D34" s="2"/>
       <c r="E34" s="1"/>
-      <c r="F34" s="2"/>
+      <c r="F34" s="1"/>
     </row>
     <row r="35">
       <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
+      <c r="D35" s="2"/>
       <c r="E35" s="1"/>
-      <c r="F35" s="2"/>
+      <c r="F35" s="1"/>
     </row>
     <row r="36">
       <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
+      <c r="D36" s="2"/>
       <c r="E36" s="1"/>
-      <c r="F36" s="2"/>
+      <c r="F36" s="1"/>
     </row>
     <row r="37">
       <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
+      <c r="D37" s="2"/>
       <c r="E37" s="1"/>
-      <c r="F37" s="2"/>
+      <c r="F37" s="1"/>
     </row>
     <row r="38">
       <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
+      <c r="D38" s="2"/>
       <c r="E38" s="1"/>
-      <c r="F38" s="2"/>
+      <c r="F38" s="1"/>
     </row>
     <row r="39">
       <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
+      <c r="D39" s="2"/>
       <c r="E39" s="1"/>
-      <c r="F39" s="2"/>
+      <c r="F39" s="1"/>
     </row>
     <row r="40">
       <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
+      <c r="D40" s="2"/>
       <c r="E40" s="1"/>
-      <c r="F40" s="2"/>
+      <c r="F40" s="1"/>
     </row>
     <row r="41">
       <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
+      <c r="D41" s="2"/>
       <c r="E41" s="1"/>
-      <c r="F41" s="2"/>
+      <c r="F41" s="1"/>
     </row>
     <row r="42">
       <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
+      <c r="D42" s="2"/>
       <c r="E42" s="1"/>
-      <c r="F42" s="2"/>
+      <c r="F42" s="1"/>
     </row>
     <row r="43">
       <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
+      <c r="D43" s="2"/>
       <c r="E43" s="1"/>
-      <c r="F43" s="2"/>
+      <c r="F43" s="1"/>
     </row>
     <row r="44">
       <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
+      <c r="D44" s="2"/>
       <c r="E44" s="1"/>
-      <c r="F44" s="2"/>
+      <c r="F44" s="1"/>
     </row>
     <row r="45">
       <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
+      <c r="D45" s="2"/>
       <c r="E45" s="1"/>
-      <c r="F45" s="2"/>
+      <c r="F45" s="1"/>
     </row>
     <row r="46">
       <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
+      <c r="D46" s="2"/>
       <c r="E46" s="1"/>
-      <c r="F46" s="2"/>
+      <c r="F46" s="1"/>
     </row>
     <row r="47">
       <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
+      <c r="D47" s="2"/>
       <c r="E47" s="1"/>
-      <c r="F47" s="2"/>
+      <c r="F47" s="1"/>
     </row>
     <row r="48">
       <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
+      <c r="D48" s="2"/>
       <c r="E48" s="1"/>
-      <c r="F48" s="2"/>
+      <c r="F48" s="1"/>
     </row>
     <row r="49">
       <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
+      <c r="D49" s="2"/>
       <c r="E49" s="1"/>
-      <c r="F49" s="2"/>
+      <c r="F49" s="1"/>
     </row>
     <row r="50">
       <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
+      <c r="D50" s="2"/>
       <c r="E50" s="1"/>
-      <c r="F50" s="2"/>
+      <c r="F50" s="1"/>
     </row>
     <row r="51">
       <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
+      <c r="D51" s="2"/>
       <c r="E51" s="1"/>
-      <c r="F51" s="2"/>
+      <c r="F51" s="1"/>
     </row>
     <row r="52">
       <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
+      <c r="D52" s="2"/>
       <c r="E52" s="1"/>
-      <c r="F52" s="2"/>
+      <c r="F52" s="1"/>
     </row>
     <row r="53">
       <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
+      <c r="D53" s="2"/>
       <c r="E53" s="1"/>
-      <c r="F53" s="2"/>
+      <c r="F53" s="1"/>
     </row>
     <row r="54">
       <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
+      <c r="D54" s="2"/>
       <c r="E54" s="1"/>
-      <c r="F54" s="2"/>
+      <c r="F54" s="1"/>
     </row>
     <row r="55">
       <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
+      <c r="D55" s="2"/>
       <c r="E55" s="1"/>
-      <c r="F55" s="2"/>
+      <c r="F55" s="1"/>
     </row>
     <row r="56">
       <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
+      <c r="D56" s="2"/>
       <c r="E56" s="1"/>
-      <c r="F56" s="2"/>
+      <c r="F56" s="1"/>
     </row>
     <row r="57">
       <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
+      <c r="D57" s="2"/>
       <c r="E57" s="1"/>
-      <c r="F57" s="2"/>
+      <c r="F57" s="1"/>
     </row>
     <row r="58">
       <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
+      <c r="D58" s="2"/>
       <c r="E58" s="1"/>
-      <c r="F58" s="2"/>
+      <c r="F58" s="1"/>
     </row>
     <row r="59">
       <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
+      <c r="D59" s="2"/>
       <c r="E59" s="1"/>
-      <c r="F59" s="2"/>
+      <c r="F59" s="1"/>
     </row>
     <row r="60">
       <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
+      <c r="D60" s="2"/>
       <c r="E60" s="1"/>
-      <c r="F60" s="2"/>
+      <c r="F60" s="1"/>
     </row>
     <row r="61">
       <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
+      <c r="D61" s="2"/>
       <c r="E61" s="1"/>
-      <c r="F61" s="2"/>
+      <c r="F61" s="1"/>
     </row>
     <row r="62">
       <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
+      <c r="D62" s="2"/>
       <c r="E62" s="1"/>
-      <c r="F62" s="2"/>
+      <c r="F62" s="1"/>
     </row>
     <row r="63">
       <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
+      <c r="D63" s="2"/>
       <c r="E63" s="1"/>
-      <c r="F63" s="2"/>
+      <c r="F63" s="1"/>
     </row>
     <row r="64">
       <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
+      <c r="D64" s="2"/>
       <c r="E64" s="1"/>
-      <c r="F64" s="2"/>
+      <c r="F64" s="1"/>
     </row>
     <row r="65">
       <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
+      <c r="D65" s="2"/>
       <c r="E65" s="1"/>
-      <c r="F65" s="2"/>
+      <c r="F65" s="1"/>
     </row>
     <row r="66">
       <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
+      <c r="D66" s="2"/>
       <c r="E66" s="1"/>
-      <c r="F66" s="2"/>
+      <c r="F66" s="1"/>
     </row>
     <row r="67">
       <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
+      <c r="D67" s="2"/>
       <c r="E67" s="1"/>
-      <c r="F67" s="2"/>
+      <c r="F67" s="1"/>
     </row>
     <row r="68">
       <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
+      <c r="D68" s="2"/>
       <c r="E68" s="1"/>
-      <c r="F68" s="2"/>
+      <c r="F68" s="1"/>
     </row>
     <row r="69">
       <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
+      <c r="D69" s="2"/>
       <c r="E69" s="1"/>
-      <c r="F69" s="2"/>
+      <c r="F69" s="1"/>
     </row>
     <row r="70">
       <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
+      <c r="D70" s="2"/>
       <c r="E70" s="1"/>
-      <c r="F70" s="2"/>
+      <c r="F70" s="1"/>
     </row>
     <row r="71">
       <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
+      <c r="D71" s="2"/>
       <c r="E71" s="1"/>
-      <c r="F71" s="2"/>
+      <c r="F71" s="1"/>
     </row>
     <row r="72">
       <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
+      <c r="D72" s="2"/>
       <c r="E72" s="1"/>
-      <c r="F72" s="2"/>
+      <c r="F72" s="1"/>
     </row>
     <row r="73">
       <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
+      <c r="D73" s="2"/>
       <c r="E73" s="1"/>
-      <c r="F73" s="2"/>
+      <c r="F73" s="1"/>
     </row>
     <row r="74">
       <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
+      <c r="D74" s="2"/>
       <c r="E74" s="1"/>
-      <c r="F74" s="2"/>
+      <c r="F74" s="1"/>
     </row>
     <row r="75">
       <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
+      <c r="D75" s="2"/>
       <c r="E75" s="1"/>
-      <c r="F75" s="2"/>
+      <c r="F75" s="1"/>
     </row>
     <row r="76">
       <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
+      <c r="D76" s="2"/>
       <c r="E76" s="1"/>
-      <c r="F76" s="2"/>
+      <c r="F76" s="1"/>
     </row>
     <row r="77">
       <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
+      <c r="D77" s="2"/>
       <c r="E77" s="1"/>
-      <c r="F77" s="2"/>
+      <c r="F77" s="1"/>
     </row>
     <row r="78">
       <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
+      <c r="D78" s="2"/>
       <c r="E78" s="1"/>
-      <c r="F78" s="2"/>
+      <c r="F78" s="1"/>
     </row>
     <row r="79">
       <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
+      <c r="D79" s="2"/>
       <c r="E79" s="1"/>
-      <c r="F79" s="2"/>
+      <c r="F79" s="1"/>
     </row>
     <row r="80">
       <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
+      <c r="D80" s="2"/>
       <c r="E80" s="1"/>
-      <c r="F80" s="2"/>
+      <c r="F80" s="1"/>
     </row>
     <row r="81">
       <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
+      <c r="D81" s="2"/>
       <c r="E81" s="1"/>
-      <c r="F81" s="2"/>
+      <c r="F81" s="1"/>
     </row>
     <row r="82">
       <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
+      <c r="D82" s="2"/>
       <c r="E82" s="1"/>
-      <c r="F82" s="2"/>
+      <c r="F82" s="1"/>
     </row>
     <row r="83">
       <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
+      <c r="D83" s="2"/>
       <c r="E83" s="1"/>
-      <c r="F83" s="2"/>
+      <c r="F83" s="1"/>
     </row>
     <row r="84">
       <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
+      <c r="D84" s="2"/>
       <c r="E84" s="1"/>
-      <c r="F84" s="2"/>
+      <c r="F84" s="1"/>
     </row>
     <row r="85">
       <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
+      <c r="D85" s="2"/>
       <c r="E85" s="1"/>
-      <c r="F85" s="2"/>
+      <c r="F85" s="1"/>
     </row>
     <row r="86">
       <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
+      <c r="D86" s="2"/>
       <c r="E86" s="1"/>
-      <c r="F86" s="2"/>
+      <c r="F86" s="1"/>
     </row>
     <row r="87">
       <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
+      <c r="D87" s="2"/>
       <c r="E87" s="1"/>
-      <c r="F87" s="2"/>
+      <c r="F87" s="1"/>
     </row>
     <row r="88">
       <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
+      <c r="D88" s="2"/>
       <c r="E88" s="1"/>
-      <c r="F88" s="2"/>
+      <c r="F88" s="1"/>
     </row>
     <row r="89">
       <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
+      <c r="D89" s="2"/>
       <c r="E89" s="1"/>
-      <c r="F89" s="2"/>
+      <c r="F89" s="1"/>
     </row>
     <row r="90">
       <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
+      <c r="D90" s="2"/>
       <c r="E90" s="1"/>
-      <c r="F90" s="2"/>
+      <c r="F90" s="1"/>
     </row>
     <row r="91">
       <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
+      <c r="D91" s="2"/>
       <c r="E91" s="1"/>
-      <c r="F91" s="2"/>
+      <c r="F91" s="1"/>
     </row>
     <row r="92">
       <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
+      <c r="D92" s="2"/>
       <c r="E92" s="1"/>
-      <c r="F92" s="2"/>
+      <c r="F92" s="1"/>
     </row>
     <row r="93">
       <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
+      <c r="D93" s="2"/>
       <c r="E93" s="1"/>
-      <c r="F93" s="2"/>
+      <c r="F93" s="1"/>
     </row>
     <row r="94">
       <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
+      <c r="D94" s="2"/>
       <c r="E94" s="1"/>
-      <c r="F94" s="2"/>
+      <c r="F94" s="1"/>
     </row>
     <row r="95">
       <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
+      <c r="D95" s="2"/>
       <c r="E95" s="1"/>
-      <c r="F95" s="2"/>
+      <c r="F95" s="1"/>
     </row>
     <row r="96">
       <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
+      <c r="D96" s="2"/>
       <c r="E96" s="1"/>
-      <c r="F96" s="2"/>
+      <c r="F96" s="1"/>
     </row>
     <row r="97">
       <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
+      <c r="D97" s="2"/>
       <c r="E97" s="1"/>
-      <c r="F97" s="2"/>
+      <c r="F97" s="1"/>
     </row>
     <row r="98">
       <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
+      <c r="D98" s="2"/>
       <c r="E98" s="1"/>
-      <c r="F98" s="2"/>
+      <c r="F98" s="1"/>
     </row>
     <row r="99">
       <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
+      <c r="D99" s="2"/>
       <c r="E99" s="1"/>
-      <c r="F99" s="2"/>
+      <c r="F99" s="1"/>
+    </row>
+    <row r="100">
+      <c r="C100" s="1"/>
+      <c r="D100" s="2"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -1136,407 +1160,467 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="B1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="C1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="D1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="E1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="F1" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
+      <c r="G1" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="18"/>
-      <c r="H2" s="19"/>
+        <v>22</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>19</v>
-      </c>
       <c r="F3" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="18"/>
-      <c r="H3" s="19"/>
     </row>
     <row r="4">
       <c r="A4" s="16" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="18"/>
-      <c r="H4" s="19"/>
+        <v>33</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="18"/>
-      <c r="H5" s="19"/>
+      <c r="H5" s="18" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="16" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="G6" s="18"/>
-      <c r="H6" s="19"/>
+        <v>42</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="16" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" s="18"/>
-      <c r="H7" s="19"/>
+        <v>47</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="16" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="18"/>
-      <c r="H8" s="19"/>
+        <v>47</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="16" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="G9" s="18"/>
-      <c r="H9" s="19"/>
+        <v>55</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="16" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="G10" s="18"/>
-      <c r="H10" s="19"/>
+        <v>61</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="16" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="G11" s="18"/>
-      <c r="H11" s="19"/>
+        <v>55</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="16" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="G12" s="18"/>
-      <c r="H12" s="19"/>
+        <v>68</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="16" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="G13" s="18"/>
-      <c r="H13" s="19"/>
+        <v>71</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>62</v>
-      </c>
       <c r="F14" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="G14" s="18"/>
-      <c r="H14" s="19"/>
+        <v>71</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="16" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="G15" s="18"/>
-      <c r="H15" s="19"/>
+        <v>78</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" s="18" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="16" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="G16" s="18"/>
-      <c r="H16" s="19"/>
+        <v>83</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" s="18" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="16" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="G17" s="18"/>
-      <c r="H17" s="19"/>
+        <v>86</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17" s="18" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="16" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="G18" s="18"/>
-      <c r="H18" s="19"/>
+        <v>90</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H18" s="18" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="16" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="G19" s="18"/>
-      <c r="H19" s="19"/>
+        <v>94</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H19" s="18" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="20" hidden="1"/>
     <row r="21" hidden="1"/>
@@ -1622,7 +1706,9 @@
   </sheetData>
   <autoFilter ref="$H$1:$H$100">
     <filterColumn colId="0">
-      <filters/>
+      <filters>
+        <filter val="Fail"/>
+      </filters>
     </filterColumn>
   </autoFilter>
   <drawing r:id="rId1"/>
